--- a/data/xlsx/MapHistory.xlsx
+++ b/data/xlsx/MapHistory.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -967,6 +967,70 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MHID_反撃</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{[0100]}已发动止水雷轰架势。</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MHID_反撃+</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{[0100]}已发动止水雷轰架势+。</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MHID_エンチャント</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{[0100]}已发动极限活用。</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MHID_エンチャント武器</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{[0100]}已发动武器共鸣。</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
